--- a/PPG/Downloads.xlsx
+++ b/PPG/Downloads.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5C98A8-9639-4A4E-A311-DC5F37118761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67DE304-36E4-994D-835C-3293F32F69F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>Publicação</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>Politica Intercâmbio Docente UNISUAM.pdf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16vdyXRk0gsnwu_-07qC8nZqM7UyzHTp1</t>
+  </si>
+  <si>
+    <t>Boas Práticas em Pesquisa</t>
   </si>
 </sst>
 </file>
@@ -267,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -276,6 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -295,7 +302,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -583,7 +590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -591,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0BF8E8-1FD5-0840-BB82-29AF821A5776}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,26 +620,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
         <v>2022</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2022</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -640,32 +647,32 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -673,32 +680,32 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -706,10 +713,10 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -717,60 +724,72 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>2018</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>2022</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{ECBD4425-F62B-E14B-86BF-66FA678A5C50}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
-    <hyperlink ref="C11" r:id="rId4" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{56C56D7E-2135-A74D-BA2E-25208B8CAD37}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
-    <hyperlink ref="C5" r:id="rId8" xr:uid="{73D10A8A-12A7-4343-9575-A450215F95E0}"/>
-    <hyperlink ref="C3" r:id="rId9" xr:uid="{38E3EFD9-E05A-D943-B81F-9E48C3BB0427}"/>
-    <hyperlink ref="C4" r:id="rId10" xr:uid="{AE426EF3-8798-5D4D-8D1F-9EE4F36FF9B0}"/>
-    <hyperlink ref="C2" r:id="rId11" xr:uid="{A5FDD6C0-D392-1442-AD5E-5DB1288BEADA}"/>
-    <hyperlink ref="C14" r:id="rId12" xr:uid="{030C4F3F-C946-DF4B-9287-8F45F8640FE9}"/>
-    <hyperlink ref="C12" r:id="rId13" xr:uid="{C9E7B292-21F8-C545-8665-BDFE18147920}"/>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{ECBD4425-F62B-E14B-86BF-66FA678A5C50}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{3D88110F-67C6-D746-8E5D-16D427D91F85}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{A8DBA6C4-B539-564C-AF15-A66F5DA3E000}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{EECFFAA7-C5FE-5147-913B-CE1A8D44392D}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{9F5B54ED-C7BB-FE4D-ACB4-3A055AA32CC1}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{56C56D7E-2135-A74D-BA2E-25208B8CAD37}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{3FBABA6B-FA1E-CF4A-8B21-86581DA978A1}"/>
+    <hyperlink ref="C6" r:id="rId8" xr:uid="{73D10A8A-12A7-4343-9575-A450215F95E0}"/>
+    <hyperlink ref="C4" r:id="rId9" xr:uid="{38E3EFD9-E05A-D943-B81F-9E48C3BB0427}"/>
+    <hyperlink ref="C5" r:id="rId10" xr:uid="{AE426EF3-8798-5D4D-8D1F-9EE4F36FF9B0}"/>
+    <hyperlink ref="C3" r:id="rId11" xr:uid="{A5FDD6C0-D392-1442-AD5E-5DB1288BEADA}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{030C4F3F-C946-DF4B-9287-8F45F8640FE9}"/>
+    <hyperlink ref="C13" r:id="rId13" xr:uid="{C9E7B292-21F8-C545-8665-BDFE18147920}"/>
+    <hyperlink ref="C2" r:id="rId14" xr:uid="{812CA5A8-C8F6-1644-9CB8-FD2BAD64624A}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
